--- a/Test Cases/Positive Test Cases/Admin panel Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/Admin panel Test Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="105">
   <si>
     <t>Test Case № 1</t>
   </si>
@@ -359,12 +359,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -379,10 +385,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A2:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+      <selection activeCell="A121" sqref="A121:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,16 +709,15 @@
     <col min="4" max="4" width="54.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -745,13 +752,14 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -803,13 +811,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -858,20 +867,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -921,13 +931,14 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -979,20 +990,21 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1042,187 +1054,200 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="4" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>17</v>
       </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>15</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="2"/>
+      <c r="D52" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>2</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D58" s="2" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="4" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>17</v>
       </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>59</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>15</v>
       </c>
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -1338,10 +1363,14 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="B81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1437,20 +1466,21 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>15</v>
       </c>
-      <c r="B94" t="s">
-        <v>62</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -1543,13 +1573,14 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="C107" s="2"/>
+      <c r="D107" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1634,13 +1665,14 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="C116" s="2"/>
+      <c r="D116" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1670,16 +1702,16 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="4" t="s">
         <v>95</v>
       </c>
     </row>

--- a/Test Cases/Positive Test Cases/Admin panel Test Suite.xlsx
+++ b/Test Cases/Positive Test Cases/Admin panel Test Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="106">
   <si>
     <t>Test Case № 1</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Profile stays the same</t>
   </si>
   <si>
-    <t>Test Case № 4</t>
-  </si>
-  <si>
     <t>2. Navigate to Supplements page</t>
   </si>
   <si>
@@ -329,6 +326,12 @@
   </si>
   <si>
     <t>Registered user is in Profiles page</t>
+  </si>
+  <si>
+    <t>Test Case № 5</t>
+  </si>
+  <si>
+    <t>Test Case № 11</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
   <dimension ref="A2:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:D121"/>
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +721,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,7 +763,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +822,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,7 +878,7 @@
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -939,7 +942,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,14 +994,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1022,18 +1025,18 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
         <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1050,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,11 +1064,11 @@
         <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,18 +1084,18 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
         <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1109,19 +1112,19 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,18 +1148,18 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
         <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1173,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1181,11 +1184,11 @@
         <v>16</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1201,18 +1204,18 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
         <v>51</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1229,19 +1232,19 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1265,101 +1268,101 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
         <v>29</v>
-      </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
         <v>36</v>
-      </c>
-      <c r="C71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
         <v>38</v>
-      </c>
-      <c r="C72" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
         <v>40</v>
-      </c>
-      <c r="C73" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
         <v>42</v>
-      </c>
-      <c r="C74" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
         <v>44</v>
-      </c>
-      <c r="C75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
         <v>46</v>
-      </c>
-      <c r="C76" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
         <v>49</v>
-      </c>
-      <c r="C78" t="s">
-        <v>4</v>
-      </c>
-      <c r="D78" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1367,11 +1370,11 @@
         <v>16</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,91 +1393,91 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
         <v>51</v>
-      </c>
-      <c r="C83" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
         <v>36</v>
-      </c>
-      <c r="C84" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
         <v>57</v>
-      </c>
-      <c r="C89" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,61 +1490,61 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
         <v>63</v>
-      </c>
-      <c r="C95" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
         <v>65</v>
-      </c>
-      <c r="C96" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
         <v>69</v>
-      </c>
-      <c r="C99" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -1552,24 +1555,24 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
+        <v>71</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
         <v>72</v>
-      </c>
-      <c r="C102" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
         <v>74</v>
-      </c>
-      <c r="C103" t="s">
-        <v>4</v>
-      </c>
-      <c r="D103" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -1577,66 +1580,66 @@
         <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B108" t="s">
         <v>77</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>78</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>79</v>
-      </c>
-      <c r="D108" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
+        <v>81</v>
+      </c>
+      <c r="C110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" t="s">
         <v>82</v>
-      </c>
-      <c r="C110" t="s">
-        <v>79</v>
-      </c>
-      <c r="D110" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
+        <v>83</v>
+      </c>
+      <c r="C111" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" t="s">
         <v>84</v>
-      </c>
-      <c r="C111" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C112" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -1644,41 +1647,41 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C113" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" t="s">
         <v>87</v>
-      </c>
-      <c r="C113" t="s">
-        <v>79</v>
-      </c>
-      <c r="D113" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s">
+        <v>78</v>
+      </c>
+      <c r="D114" t="s">
         <v>103</v>
-      </c>
-      <c r="C114" t="s">
-        <v>79</v>
-      </c>
-      <c r="D114" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -1692,68 +1695,68 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D121" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" t="s">
+        <v>78</v>
+      </c>
+      <c r="D122" t="s">
         <v>96</v>
-      </c>
-      <c r="C122" t="s">
-        <v>79</v>
-      </c>
-      <c r="D122" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
+        <v>99</v>
+      </c>
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125" t="s">
         <v>100</v>
-      </c>
-      <c r="C125" t="s">
-        <v>79</v>
-      </c>
-      <c r="D125" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
